--- a/יציות הביתה _ פלוגה ג 5032.xlsx
+++ b/יציות הביתה _ פלוגה ג 5032.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andybenichou/Desktop/meshavsek/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C302A007-E28A-2C49-BB28-466DC8A7812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="יציאות" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="צפונים" sheetId="2" r:id="rId5"/>
+    <sheet name="יציאות" sheetId="1" r:id="rId1"/>
+    <sheet name="צפונים" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>שישי ושבת 10.11</t>
   </si>
@@ -216,38 +225,52 @@
   </si>
   <si>
     <t>לישי גרימו</t>
+  </si>
+  <si>
+    <t>אגומס</t>
+  </si>
+  <si>
+    <t>ניסנוב</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -281,7 +304,13 @@
     </fill>
   </fills>
   <borders count="15">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
@@ -295,8 +324,10 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -306,8 +337,10 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -317,6 +350,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -325,16 +359,27 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -343,188 +388,187 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -714,24 +758,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="7" width="14.25"/>
-    <col customWidth="1" min="11" max="11" width="21.38"/>
+    <col min="1" max="7" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,7 +819,7 @@
       </c>
       <c r="M1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -793,17 +842,17 @@
       <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -818,19 +867,19 @@
       <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4">
+      <c r="M3" s="27"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -851,37 +900,41 @@
         <v>27</v>
       </c>
       <c r="L4" s="5"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5">
+      <c r="M4" s="27"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="H5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="L5" s="5"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6">
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="H6" s="5" t="s">
         <v>31</v>
       </c>
@@ -889,294 +942,297 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12" t="s">
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12" t="s">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12" t="s">
+      <c r="L8" s="9"/>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17" t="s">
+      <c r="L12" s="11"/>
+      <c r="M12" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19" t="s">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="21"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="22"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="23"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="23"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="23"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="23"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="24"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="24"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="24"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="24"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="24"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="25"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="26"/>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="18"/>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="18"/>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="18"/>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="18"/>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="19"/>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="19"/>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="19"/>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="19"/>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="19"/>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="20"/>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="M2:M6"/>
     <mergeCell ref="M7:M11"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="28"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="30"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="29" t="s">
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="29" t="s">
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="29" t="s">
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="29" t="s">
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="31" t="s">
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="34"/>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="34"/>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
+      <c r="B10" s="27"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
+      <c r="B11" s="27"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="25"/>
+      <c r="B12" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1184,6 +1240,6 @@
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B12"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>